--- a/StockDumpsSource/Rites.xlsx
+++ b/StockDumpsSource/Rites.xlsx
@@ -4094,7 +4094,7 @@
         <v>80</v>
       </c>
       <c r="B9">
-        <v>6703.03</v>
+        <v>6720.00</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
